--- a/biology/Médecine/Omoplate/Omoplate.xlsx
+++ b/biology/Médecine/Omoplate/Omoplate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scapula
 La scapula (du latin scapula « épaule ») ou omoplate (en ancienne nomenclature, du grec ὠμοπλάτη, nom composé de ὦμος « épaule » et πλάτη « objet plat ») est un os plat, pair et de forme triangulaire. Elle est située à la partie postéro-supérieure du thorax, plaquée contre le gril costal. Elle s'articule en dehors avec l'humérus et en avant avec la clavicule. La scapula glisse sur le muscle dentelé antérieur mais ne s'articule pas avec la cage thoracique. Avec la clavicule, elle forme la ceinture scapulaire.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La scapula peut se décrire en lui distinguant :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La scapula peut se décrire en lui distinguant :
 deux faces :
 une antérieure ;
 une postérieure ;
@@ -525,33 +539,260 @@
 trois angles :
 un inférieur ;
 un supéro-médial ;
-un supéro-latéral.
-Faces
-Face antérieure
-La face antérieure ou costale est concave et regarde en avant, en bas et en dedans.
+un supéro-latéral.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Omoplate</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Omoplate</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Faces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Face antérieure</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face antérieure ou costale est concave et regarde en avant, en bas et en dedans.
 Elle forme la fosse subscapulaire donne insertion au muscle subscapulaire.
 On lui décrit 3 parties : une partie centrale, une partie médiale et une partie latérale.
 Entre le quart supérieur et les 3/4 inférieurs de la partie centrale, on note une ligne de dépression latérale correspondant à l'insertion du bord antérieur de l'épine de la scapula.
 La partie basse est concave et parcourue par des crêtes correspondant à l'insertion des lames tendineuses du muscle subscapulaire.
 Parallèle au bord latéral, la partie latérale est épaisse et constitue l'un des piliers de la scapula.
 La partie médiale est élargie à ses extrémités. Elle donne insertion au muscle dentelé antérieur.
-Face postérieure
-La face postérieure est globalement convexe et partagée en deux à l'union de son quart supérieur et de ses trois-quarts inférieur par une lame osseuse dirigée perpendiculairement à la surface : l’épine de la scapula.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Omoplate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Omoplate</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Faces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Face postérieure</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face postérieure est globalement convexe et partagée en deux à l'union de son quart supérieur et de ses trois-quarts inférieur par une lame osseuse dirigée perpendiculairement à la surface : l’épine de la scapula.
 La partie située au-dessus de l'épine est plate et lisse. Elle forme la fosse supra-épineuse et reçoit l'insertion du muscle supra-épineux dans sa partie médiale.
 Une crête osseuse plus ou moins marquée sépare une partie latérale qui reçoit les insertions des muscles petit rond et grand rond.
 L’épine scapulaire, de forme triangulaire, reçoit l'insertion de la partie postérieure du muscle deltoïde sur son bord inférieur et du muscle trapèze sur son bord supérieur. Son bord postérieur se prolonge en dehors et en avant par l'acromion.
-Bords
-Bord supérieur
-Le bord supérieur s'étend entre les deux angles supérieurs de la scapula. Il est oblique en haut et en dedans et séparé du processus coracoïde par l'incisure scapulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Omoplate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Omoplate</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bords</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bord supérieur</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord supérieur s'étend entre les deux angles supérieurs de la scapula. Il est oblique en haut et en dedans et séparé du processus coracoïde par l'incisure scapulaire.
 Il reçoit les insertions, de dedans en dehors, le fascia cervical moyen, le muscle omo-hyoïdien et le ligament transverse supérieur de la scapula.
-Bord médial
-Le bord médial ou bord spinal s'étend entre l'angle supéro-médial et l'angle inférieur de la scapula.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Omoplate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Omoplate</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bords</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bord médial</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord médial ou bord spinal s'étend entre l'angle supéro-médial et l'angle inférieur de la scapula.
 Il est convexe en dedans. Il donne insertion dans son quart supérieur au muscle élévateur de la scapula et dans la partie inférieure restante au muscle rhomboïde.
-Bord latéral
-Le bord latéral ou bord axillaire entre le bord inférieur de la cavité glénoïde et l'angle inférieur de la scapula. Très renforcé, il forme l'un des piliers de la scapula.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Omoplate</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Omoplate</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bords</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bord latéral</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord latéral ou bord axillaire entre le bord inférieur de la cavité glénoïde et l'angle inférieur de la scapula. Très renforcé, il forme l'un des piliers de la scapula.
 Sa partie supérieure présente le tubercule infraglénoïdal sur lequel s'insère le muscle triceps brachial.
-Angles
-L'angle inférieur (ou angle caudal ou pointe de la scapula) à la jonction des bords médial et latéral donne insertion au muscle grand dorsal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Omoplate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Omoplate</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Angles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'angle inférieur (ou angle caudal ou pointe de la scapula) à la jonction des bords médial et latéral donne insertion au muscle grand dorsal.
 L'angle supéro-médial ou angle supérieur  à la jonction des bords médial et supérieur donne insertion au muscle élévateur de la scapula.
 L'angle supéro-latéral ou angle latéral à la jonction des bords latéral et supérieur est centré sur la cavité glénoïdale de la scapula qui fait partie de l’articulation scapulo-humérale.
 Il composé du col de la scapula, du processus coracoïde et de la cavité glénoïdale.
